--- a/storage/exports/product-form-format.xlsx
+++ b/storage/exports/product-form-format.xlsx
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock</t>
+  </si>
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -38,6 +44,66 @@
   </si>
   <si>
     <t xml:space="preserve">Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250g Plastik Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250g Aluminium Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500g Plastik Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500g Aluminium Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1kg Plastik Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1kg Aluminium Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5kg Jerigen Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25kg Jerigen Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25kg Drum Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30kg Jerigen Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250g Plastik Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250g Aluminium Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500g Plastik Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500g Aluminium Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1kg Plastik Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1kg Aluminium Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5kg Jerigen Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25kg Jerigen Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25kg Drum Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30kg Jerigen Stock</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -50,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -72,8 +138,14 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,12 +160,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF72BF44"/>
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -102,9 +180,37 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -134,16 +240,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -163,7 +297,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -224,59 +358,156 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AMJ2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="46.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="9.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="12.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="9.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.41"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="9.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="46.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" s="1" customFormat="true" ht="16.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="16.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="ALZ2" s="0"/>
-      <c r="AMA2" s="0"/>
-      <c r="AMB2" s="0"/>
-      <c r="AMC2" s="0"/>
-      <c r="AMD2" s="0"/>
-      <c r="AME2" s="0"/>
-      <c r="AMF2" s="0"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="Q1:Z1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
